--- a/data/trans_orig/IP16B10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6FA6C8B-7AE1-4A91-97DF-918AB125395A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC567D34-DA13-4BDF-9233-227C23427A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{932CF549-6885-4353-A7D2-8DB4A07FC41C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C8F76E67-FE03-4D89-A3C7-F593DAB4F558}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,70 +67,70 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>69,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>Capitales</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E99BAD-278D-4F1A-BBC7-66B499037A5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524BC899-6D87-4EB1-8969-70CDDEC0A9E3}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -748,38 +748,34 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -795,34 +791,30 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -844,39 +836,35 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
-      </c>
-      <c r="N6" s="7">
-        <v>2900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -888,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -916,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -937,13 +925,13 @@
         <v>667</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -965,13 +953,13 @@
         <v>667</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -986,13 +974,13 @@
         <v>667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1014,18 +1002,18 @@
         <v>667</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1033,30 +1021,30 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1065,62 +1053,62 @@
         <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2900</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>685</v>
+        <v>2900</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1129,47 +1117,47 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2900</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>685</v>
+        <v>2900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1182,86 +1170,98 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1367</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3896</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5264</v>
+      </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1270,48 +1270,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1367</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3896</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="N15" s="7">
+        <v>5264</v>
+      </c>
       <c r="O15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1323,28 +1329,26 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1353,64 +1357,62 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1367</v>
+        <v>685</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>685</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="7">
-        <v>7</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3896</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="7">
-        <v>9</v>
-      </c>
-      <c r="N17" s="7">
-        <v>5264</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1419,49 +1421,47 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>1367</v>
+        <v>685</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3896</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M18" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>5264</v>
+        <v>685</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>31</v>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>32</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>33</v>
@@ -1520,7 +1520,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -1529,13 +1529,13 @@
         <v>2719</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -1544,13 +1544,13 @@
         <v>6797</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -1559,13 +1559,13 @@
         <v>9516</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1580,13 +1580,13 @@
         <v>2719</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -1595,13 +1595,13 @@
         <v>6797</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -1610,13 +1610,13 @@
         <v>9516</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD66189D-27B3-4124-B89B-E5F57B2CB2AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD6FF29-17A1-46E4-92D6-C05D111DD115}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1755,100 +1755,88 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>653</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>652</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2823</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,54 +1845,48 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
-      </c>
-      <c r="N6" s="7">
-        <v>3476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1916,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1944,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1965,13 +1947,13 @@
         <v>1298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1993,13 +1975,13 @@
         <v>1298</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,13 +1996,13 @@
         <v>1298</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2042,105 +2024,117 @@
         <v>1298</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>652</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>653</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>652</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2171</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2823</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,43 +2143,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1305</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2171</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N12" s="7">
+        <v>3476</v>
+      </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,86 +2198,98 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1494</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1126</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2620</v>
+      </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,48 +2298,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1494</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1126</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2620</v>
+      </c>
       <c r="O15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2335,98 +2353,86 @@
       <c r="C16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
+      <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,49 +2441,43 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
-      </c>
-      <c r="N18" s="7">
-        <v>2620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2497,7 @@
         <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>46</v>
@@ -2509,13 +2509,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2527,7 +2527,7 @@
         <v>47</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>48</v>
@@ -2536,7 +2536,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7">
         <v>5</v>
@@ -2551,7 +2551,7 @@
         <v>50</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2560,13 +2560,13 @@
         <v>3296</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -2581,7 +2581,7 @@
         <v>52</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2596,13 @@
         <v>4097</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2611,13 +2611,13 @@
         <v>3296</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -2626,13 +2626,13 @@
         <v>7394</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0632298-F77D-458F-9343-89140BE840AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAD9A4F-83AA-49C3-AEEC-DA683AEEF4CA}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2813,7 +2813,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2930,10 +2930,10 @@
         <v>54</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2945,16 +2945,16 @@
         <v>54</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2979,10 +2979,10 @@
         <v>55</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2994,10 +2994,10 @@
         <v>55</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3025,13 @@
         <v>1149</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3040,18 +3040,18 @@
         <v>1149</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3099,7 +3099,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3196,86 +3196,98 @@
       <c r="C13" s="7">
         <v>0</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2062</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>613</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N14" s="7">
+        <v>2675</v>
+      </c>
       <c r="O14" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,48 +3296,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2062</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>613</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2675</v>
+      </c>
       <c r="O15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3333,98 +3351,86 @@
       <c r="C16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
       </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
+      <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,49 +3439,43 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
-      </c>
-      <c r="D18" s="7">
-        <v>2062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7"/>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
-      </c>
-      <c r="N18" s="7">
-        <v>2675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>39</v>
@@ -3510,10 +3510,10 @@
         <v>56</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3525,7 +3525,7 @@
         <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>58</v>
@@ -3534,7 +3534,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -3543,13 +3543,13 @@
         <v>2062</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3561,10 +3561,10 @@
         <v>59</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3579,7 +3579,7 @@
         <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3594,13 @@
         <v>2062</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -3609,13 +3609,13 @@
         <v>1762</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -3624,13 +3624,13 @@
         <v>3824</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC567D34-DA13-4BDF-9233-227C23427A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A16BEA6-B67D-4D15-B185-49334B3C4C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C8F76E67-FE03-4D89-A3C7-F593DAB4F558}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38E69292-607B-4C36-9DD4-EABBAB3B42F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="63">
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2007 (Tasa respuesta: 0,76%)</t>
   </si>
@@ -70,18 +70,27 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -91,27 +100,27 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
     <t>30,57%</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
     <t>56,93%</t>
   </si>
   <si>
@@ -121,18 +130,18 @@
     <t>18,74%</t>
   </si>
   <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
@@ -142,13 +151,7 @@
     <t>11,15%</t>
   </si>
   <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2012 (Tasa respuesta: 0,52%)</t>
@@ -157,55 +160,64 @@
     <t>50,0%</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
     <t>44,41%</t>
   </si>
   <si>
     <t>18,77%</t>
   </si>
   <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
   </si>
   <si>
     <t>15,93%</t>
   </si>
   <si>
-    <t>66,74%</t>
+    <t>67,45%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
+    <t>37,88%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2015 (Tasa respuesta: 0,28%)</t>
   </si>
   <si>
+    <t>48,71%</t>
+  </si>
+  <si>
     <t>51,29%</t>
   </si>
   <si>
-    <t>48,71%</t>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
   </si>
   <si>
     <t>33,44%</t>
@@ -214,16 +226,7 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>66,95%</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -330,39 +333,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -414,7 +417,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -525,13 +528,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -540,6 +536,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -604,19 +607,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524BC899-6D87-4EB1-8969-70CDDEC0A9E3}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94265473-93D1-4D12-B87B-2F4534826D34}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -870,10 +893,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -898,10 +921,10 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>14</v>
@@ -919,10 +942,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -947,10 +970,10 @@
         <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -974,13 +997,13 @@
         <v>667</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1002,13 +1025,13 @@
         <v>667</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1032,34 +1055,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>2900</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1081,34 +1104,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1136,13 +1159,13 @@
         <v>2900</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1151,13 +1174,13 @@
         <v>2900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1168,49 +1191,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1367</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>3896</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>5264</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1219,49 +1242,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1367</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>3896</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>5264</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1276,13 +1299,13 @@
         <v>1367</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>7</v>
@@ -1291,13 +1314,13 @@
         <v>3896</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -1306,13 +1329,13 @@
         <v>5264</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1323,10 +1346,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
@@ -1351,10 +1374,10 @@
         <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>14</v>
@@ -1372,10 +1395,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -1400,10 +1423,10 @@
         <v>11</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
@@ -1427,13 +1450,13 @@
         <v>685</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1455,13 +1478,13 @@
         <v>685</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1472,49 +1495,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>2719</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>6797</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>9516</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1523,49 +1546,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>2719</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H20" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>6797</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M20" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>9516</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1580,13 +1603,13 @@
         <v>2719</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -1595,13 +1618,13 @@
         <v>6797</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -1610,13 +1633,18 @@
         <v>9516</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1637,8 +1665,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD6FF29-17A1-46E4-92D6-C05D111DD115}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10E9A5A-E702-4070-AE7C-719E9920169F}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1654,7 +1682,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1892,19 +1920,19 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1920,19 +1948,19 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,19 +1969,19 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1298</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1969,19 +1997,19 @@
         <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>1298</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,13 +2024,13 @@
         <v>1298</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2024,13 +2052,13 @@
         <v>1298</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,43 +2075,43 @@
         <v>652</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>2171</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>653</v>
+        <v>2823</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,43 +2126,43 @@
         <v>652</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>2171</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>2823</v>
+        <v>653</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2177,13 @@
         <v>1305</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -2164,13 +2192,13 @@
         <v>2171</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -2179,13 +2207,13 @@
         <v>3476</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2196,49 +2224,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>1494</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>2620</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,49 +2275,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1494</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2332,13 @@
         <v>1494</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -2319,13 +2347,13 @@
         <v>1126</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -2334,13 +2362,13 @@
         <v>2620</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,49 +2516,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" s="7">
-        <v>652</v>
+        <v>3445</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>3296</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>653</v>
+        <v>6741</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,49 +2567,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>3445</v>
+        <v>652</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>3296</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M20" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>6741</v>
+        <v>653</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2624,13 @@
         <v>4097</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2611,13 +2639,13 @@
         <v>3296</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
         <v>11</v>
@@ -2626,13 +2654,18 @@
         <v>7394</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2653,8 +2686,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAD9A4F-83AA-49C3-AEEC-DA683AEEF4CA}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E73A133-E8B1-45C3-BBF3-5C6F5286ABB2}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2670,7 +2703,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,31 +2957,31 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,31 +3006,31 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3058,13 @@
         <v>1149</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3040,13 +3073,13 @@
         <v>1149</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,25 +3227,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>2062</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>14</v>
@@ -3224,19 +3257,19 @@
         <v>16</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>2675</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,25 +3278,25 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>2062</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -3275,19 +3308,19 @@
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>2675</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3335,13 @@
         <v>2062</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -3317,13 +3350,13 @@
         <v>613</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -3332,13 +3365,13 @@
         <v>2675</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,49 +3519,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>2062</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>589</v>
+        <v>1173</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M19" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>589</v>
+        <v>3235</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,49 +3570,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>2062</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>1173</v>
+        <v>589</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>589</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3235</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3627,13 @@
         <v>2062</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -3609,13 +3642,13 @@
         <v>1762</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -3624,13 +3657,18 @@
         <v>3824</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16B10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B10-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A16BEA6-B67D-4D15-B185-49334B3C4C0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{863043B9-E648-426B-AE24-CF438F6EA57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38E69292-607B-4C36-9DD4-EABBAB3B42F7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9E95ADA-3BC2-4A2B-8C1F-F0E7CD331DE0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,7 +79,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -100,7 +100,7 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -109,7 +109,7 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -181,28 +181,28 @@
     <t>84,07%</t>
   </si>
   <si>
-    <t>32,55%</t>
+    <t>33,33%</t>
   </si>
   <si>
     <t>91,18%</t>
   </si>
   <si>
-    <t>62,12%</t>
+    <t>60,98%</t>
   </si>
   <si>
     <t>15,93%</t>
   </si>
   <si>
-    <t>67,45%</t>
+    <t>66,67%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2015 (Tasa respuesta: 0,28%)</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2016 (Tasa respuesta: 0,28%)</t>
   </si>
   <si>
     <t>48,71%</t>
@@ -217,7 +217,7 @@
     <t>84,59%</t>
   </si>
   <si>
-    <t>33,05%</t>
+    <t>24,61%</t>
   </si>
   <si>
     <t>33,44%</t>
@@ -226,7 +226,7 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>66,95%</t>
+    <t>75,39%</t>
   </si>
 </sst>
 </file>
@@ -638,7 +638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94265473-93D1-4D12-B87B-2F4534826D34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B05725B-0C30-4DD4-ADC2-45C84DBEE407}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1665,7 +1665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10E9A5A-E702-4070-AE7C-719E9920169F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706DD8AD-3831-4CB6-B0E3-14D8432E6DC8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2686,7 +2686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E73A133-E8B1-45C3-BBF3-5C6F5286ABB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAF68B0-4462-4F1D-A5B9-BA43C88083D7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP16B10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16B10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{863043B9-E648-426B-AE24-CF438F6EA57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD7D46EF-FD64-466E-8359-EE44E37D5B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E9E95ADA-3BC2-4A2B-8C1F-F0E7CD331DE0}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{F0916C11-8668-4121-BDDB-AFA82D97C53A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="62">
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2007 (Tasa respuesta: 0,76%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -76,21 +76,18 @@
     <t>—%</t>
   </si>
   <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -109,45 +106,45 @@
     <t>30,57%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>76,75%</t>
   </si>
   <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>76,75%</t>
-  </si>
-  <si>
     <t>81,26%</t>
   </si>
   <si>
+    <t>23,25%</t>
+  </si>
+  <si>
     <t>56,93%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
     <t>18,74%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>85,49%</t>
+  </si>
+  <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
     <t>88,85%</t>
   </si>
   <si>
+    <t>14,51%</t>
+  </si>
+  <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>11,15%</t>
   </si>
   <si>
@@ -157,16 +154,16 @@
     <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2012 (Tasa respuesta: 0,52%)</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
     <t>50,0%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
     <t>81,23%</t>
   </si>
   <si>
-    <t>20,0%</t>
+    <t>24,93%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -175,31 +172,31 @@
     <t>18,77%</t>
   </si>
   <si>
-    <t>80,0%</t>
+    <t>75,07%</t>
   </si>
   <si>
     <t>84,07%</t>
   </si>
   <si>
-    <t>33,33%</t>
+    <t>33,26%</t>
   </si>
   <si>
     <t>91,18%</t>
   </si>
   <si>
-    <t>60,98%</t>
+    <t>62,8%</t>
   </si>
   <si>
     <t>15,93%</t>
   </si>
   <si>
-    <t>66,67%</t>
+    <t>66,74%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>39,02%</t>
+    <t>37,2%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea recetados por el médico en 2016 (Tasa respuesta: 0,28%)</t>
@@ -217,7 +214,7 @@
     <t>84,59%</t>
   </si>
   <si>
-    <t>24,61%</t>
+    <t>25,81%</t>
   </si>
   <si>
     <t>33,44%</t>
@@ -226,7 +223,7 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>75,39%</t>
+    <t>74,19%</t>
   </si>
 </sst>
 </file>
@@ -638,8 +635,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B05725B-0C30-4DD4-ADC2-45C84DBEE407}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CC2A49-CB9A-4100-80E8-C86307A6010F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -769,36 +766,40 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>667</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>667</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -816,28 +817,32 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -859,53 +864,57 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>667</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>667</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>667</v>
+        <v>2900</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -921,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>667</v>
+        <v>2900</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -948,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -976,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -991,19 +1000,19 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>667</v>
+        <v>2900</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1019,89 +1028,93 @@
         <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N9" s="7">
-        <v>667</v>
+        <v>2900</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3896</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>2900</v>
+        <v>1367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>2900</v>
+        <v>5264</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1110,13 +1123,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1125,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1140,151 +1153,149 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3896</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>2900</v>
+        <v>1367</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N12" s="7">
-        <v>2900</v>
+        <v>5264</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>3896</v>
+        <v>685</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>5264</v>
+        <v>685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1293,106 +1304,106 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>3896</v>
+        <v>685</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>5264</v>
+        <v>685</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>685</v>
+        <v>6797</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2719</v>
+      </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>685</v>
+        <v>9516</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1401,26 +1412,28 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1429,13 +1442,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1444,215 +1457,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7">
-        <v>685</v>
+        <v>6797</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2719</v>
+      </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N18" s="7">
-        <v>685</v>
+        <v>9516</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2719</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6797</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="7">
-        <v>16</v>
-      </c>
-      <c r="N19" s="7">
-        <v>9516</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="7" t="s">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>4</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2719</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7">
-        <v>12</v>
-      </c>
-      <c r="I21" s="7">
-        <v>6797</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="7">
-        <v>16</v>
-      </c>
-      <c r="N21" s="7">
-        <v>9516</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1665,8 +1524,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706DD8AD-3831-4CB6-B0E3-14D8432E6DC8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBE3D18-86D3-4BDD-BC6E-134B0664A363}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1682,7 +1541,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1796,36 +1655,40 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1298</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1298</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1843,28 +1706,32 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,87 +1753,93 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1298</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1298</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>1298</v>
+        <v>2171</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>652</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>1298</v>
+        <v>2823</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1975,41 +1848,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>652</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>653</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,97 +1893,99 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2171</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
-        <v>1298</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="7">
+        <v>1305</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" s="7">
-        <v>1298</v>
+        <v>3476</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>652</v>
+        <v>1126</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>2171</v>
+        <v>1494</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>2823</v>
+        <v>2620</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -2117,22 +1994,22 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2141,28 +2018,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>653</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,150 +2051,138 @@
         <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>1305</v>
+        <v>1126</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>2171</v>
+        <v>1494</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" s="7">
-        <v>3476</v>
+        <v>2620</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,141 +2191,147 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1494</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>2</v>
-      </c>
-      <c r="I15" s="7">
-        <v>1126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>4</v>
-      </c>
-      <c r="N15" s="7">
-        <v>2620</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3296</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3445</v>
+      </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>6741</v>
+      </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>652</v>
+      </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>653</v>
+      </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,211 +2340,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3296</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I18" s="7">
+        <v>4097</v>
+      </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="N18" s="7">
+        <v>7394</v>
+      </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <v>3445</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3296</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="7">
-        <v>10</v>
-      </c>
-      <c r="N19" s="7">
-        <v>6741</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>652</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>653</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>6</v>
-      </c>
-      <c r="D21" s="7">
-        <v>4097</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="7">
-        <v>11</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7394</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>37</v>
+      <c r="A19" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2686,8 +2407,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAF68B0-4462-4F1D-A5B9-BA43C88083D7}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD23EC8-039F-4A9E-912B-D1F39631BEB3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2703,7 +2424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2804,17 +2525,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>560</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2830,36 +2553,40 @@
         <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>560</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>589</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2875,17 +2602,19 @@
         <v>11</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>589</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,17 +2623,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1149</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2920,22 +2651,24 @@
         <v>11</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1149</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2954,40 +2687,36 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3003,34 +2732,30 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>589</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,126 +2777,134 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>613</v>
+      </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2062</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N10" s="7">
+        <v>2675</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
       <c r="E11" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
       <c r="J11" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,147 +2913,141 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>613</v>
+      </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>2062</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2675</v>
+      </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,141 +3056,147 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>613</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>4</v>
-      </c>
-      <c r="N15" s="7">
-        <v>2675</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1173</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2062</v>
+      </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3235</v>
+      </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
-      </c>
-      <c r="D17" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>589</v>
+      </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
       <c r="J17" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>589</v>
+      </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,211 +3205,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1762</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>2062</v>
+      </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3824</v>
+      </c>
       <c r="O18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2062</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1173</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3235</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>589</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>589</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2062</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1762</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3824</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>37</v>
+      <c r="A19" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
